--- a/biology/Zoologie/Pierre_Huber/Pierre_Huber.xlsx
+++ b/biology/Zoologie/Pierre_Huber/Pierre_Huber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Huber, né le 19 janvier 1777 à Genève et mort le 22 décembre 1840 à Yverdon-les-Bains, est un entomologiste suisse. Fils de François Huber, il est l'auteur de nombreuses monographies sur les insectes. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Huber a fait certains des dessins qui illustrent les Nouvelles observations sur les abeilles de son père. C'est lui qui a rassemblé les matériaux qui ont conduit à la publication du second volume de cet ouvrage[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Huber a fait certains des dessins qui illustrent les Nouvelles observations sur les abeilles de son père. C'est lui qui a rassemblé les matériaux qui ont conduit à la publication du second volume de cet ouvrage.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Darwin cite ses observations au chapitre VII de L'Origine des espèces. Cf. en particulier, édition 1859, p. 208: "A little dose, as Pierre Huber expresses it, of judgment or reason, often comes into play, even in animals very low in the scale of nature."
 </t>
@@ -573,7 +589,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mémoire sur les bourdons, 1802.
 « Observations on several species of the genus Apis, known by the name of humble-bees, and called bombinatrices by Linnaeus », dans Transactions of the Linnean Society, vol. 6, Londres, 1802, p. 214-298. — Les deux versions, française et anglaise (traduction d'Andreas Bertsch), se suivent avec une pagination continue.
